--- a/resources/G3EI2/Notes_ApresRat.xlsx
+++ b/resources/G3EI2/Notes_ApresRat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{845F3D70-71AE-43D8-B2C5-445769875BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B0FDAE-D544-4B05-B566-DAF8888FDB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EFAD2FB3-8C8E-490D-91F6-99D18383C92C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EFAD2FB3-8C8E-490D-91F6-99D18383C92C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -45,33 +43,6 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>Note_AP31</t>
-  </si>
-  <si>
-    <t>Note_AP32</t>
-  </si>
-  <si>
-    <t>Note_AP33</t>
-  </si>
-  <si>
-    <t>Note_AP34</t>
-  </si>
-  <si>
-    <t>Note_AP35</t>
-  </si>
-  <si>
-    <t>Note_AP36</t>
-  </si>
-  <si>
-    <t>Note_AP41</t>
-  </si>
-  <si>
-    <t>Note_AP42</t>
-  </si>
-  <si>
-    <t>Note_AP43</t>
-  </si>
-  <si>
     <t>G3EI2_FN1</t>
   </si>
   <si>
@@ -130,6 +101,33 @@
   </si>
   <si>
     <t>G3EI2_LN10</t>
+  </si>
+  <si>
+    <t>Note_G3EI31</t>
+  </si>
+  <si>
+    <t>Note_G3EI32</t>
+  </si>
+  <si>
+    <t>Note_G3EI33</t>
+  </si>
+  <si>
+    <t>Note_G3EI34</t>
+  </si>
+  <si>
+    <t>Note_G3EI35</t>
+  </si>
+  <si>
+    <t>Note_G3EI36</t>
+  </si>
+  <si>
+    <t>Note_G3EI37</t>
+  </si>
+  <si>
+    <t>Note_G3EI38</t>
+  </si>
+  <si>
+    <t>Note_G3EI39</t>
   </si>
 </sst>
 </file>
@@ -512,58 +510,58 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>18000041</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>19000051</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D2">
         <v>12.76</v>
@@ -593,16 +591,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>19000052</v>
+        <v>18000042</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>13.76</v>
@@ -632,16 +630,16 @@
         <v>18.64</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
-        <v>19000053</v>
+        <v>18000043</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -671,16 +669,16 @@
         <v>14.83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>19000054</v>
+        <v>18000044</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>11.8</v>
@@ -710,16 +708,16 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>19000055</v>
+        <v>18000045</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>16.899999999999999</v>
@@ -749,16 +747,16 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>19000056</v>
+        <v>18000046</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>14.74</v>
@@ -788,16 +786,16 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>19000057</v>
+        <v>18000047</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>12.86</v>
@@ -827,16 +825,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>19000058</v>
+        <v>18000048</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>16.510000000000002</v>
@@ -866,16 +864,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>19000059</v>
+        <v>18000049</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>17.149999999999999</v>
@@ -905,16 +903,16 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>19000060</v>
+        <v>18000050</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>11.85</v>
